--- a/docs/assets/disciplinas/LOT2013.xlsx
+++ b/docs/assets/disciplinas/LOT2013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Capacitar os alunos para a aplicação de conhecimentos da engenharia química na solução de problemas que se apresentam na implantação e otimização de processos biotecnológicos, com ênfase em: 1) esterilização de equipamentos, meios e ar e; 2) cinética e estequiometria do crescimento microbiano e da formação de produtos.</t>
+    <t>5840876 - Walter de Carvalho</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840876 - Walter de Carvalho</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Processo biotecnológico genérico, esterilização de equipamentos, esterilização de meios por aquecimento com vapor, esterilização de ar por filtração, cinética e estequiometria do crescimento microbiano e da formação de produtos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Processo biotecnológico genérico: representação esquemática; descrição das etapas principais.2. Esterilização de equipamentos: terminologia; esterilização por agentes físicos; esterilização por agentes químicos.3. Esterilização de meios por aquecimento com vapor: cinética da destruição térmica de microrganismos; destruição de nutrientes do meio; cálculo do tempo de esterilização por processo descontínuo; cálculo do tempo de esterilização por processo contínuo.4. Esterilização de ar por filtração: aerossóis microbianos; amostradores; dimensionamento de filtros fibrosos; dimensionamento de filtros de membranas.5. Cinética e estequiometria do crescimento microbiano e da formação de produtos: velocidades de transformação e fatores de conversão; classificação dos processos fermentativos em função das velocidades de crescimento celular e formação de produtos; influência da concentração do substrato sobre a velocidade de crescimento celular; estequiometria do crescimento microbiano e da formação de produtos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,26 +106,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Os alunos serão avaliados formalmente por duas provas escritas (P1 e P2), sendo a segunda prova (P2) com peso 2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada como: NF=(P1+(P2×2))/3. Serão aprovados os alunos que obtiverem NF maior ou igual 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Será oferecido um programa de recuperação avaliado por uma prova escrita final (PR).
 A média de recuperação (MR) será calculada como: MR=(NF+PR)/2. Serão aprovados os alunos que obtiverem MR maior ou igual a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BAILEY, J.E., OLLIS D.F. Biochemical Engineering Fundamentals. 2nd edition, New York: McGraw Hill, 1986. ISBN: 978-0070032125.BORZANI, W., SCHMIDELL, W., LIMA, U.A., AQUARONE, E. Biotecnologia Industrial Fundamentos (Vol 1). São Paulo: Edgard Blucher Ltda, 2001.m ISBN: 9788521202783.DORAN P.M. Bioprocess Engineering Principles, 1st edition, San Diego: Academic Press, 1995. ISBN: 978-0080528120.KATOH, S., HORIUCHI, J., YOSHIDA, F. Biochemical Engineering: A Textbook for Engineers, Chemists and Biologists, 2nd, Completely Revised and Enlarged Edition. Weinheim/Germany: Wiley-VCH, 2015. ISBN: 978-3527338047.SCHMIDELL, W., LIMA, U.A., AQUARONE, E., BORZANI, W. Biotecnologia Industrial Engenharia Bioquímica (Vol 2), São Paulo: Edgard Blucher Ltda, 2001. ISBN: 9788521202790.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,34 +610,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -660,77 +654,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2013.xlsx
+++ b/docs/assets/disciplinas/LOT2013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Capacitar os alunos para a aplicação de conhecimentos da engenharia química na solução de problemas que se apresentam na implantação e otimização de processos biotecnológicos, com ênfase em: 1) esterilização de equipamentos, meios e ar e; 2) cinética e estequiometria do crescimento microbiano e da formação de produtos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840876 - Walter de Carvalho</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Processo biotecnológico genérico, esterilização de equipamentos, esterilização de meios por aquecimento com vapor, esterilização de ar por filtração, cinética e estequiometria do crescimento microbiano e da formação de produtos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Processo biotecnológico genérico: representação esquemática; descrição das etapas principais.2. Esterilização de equipamentos: terminologia; esterilização por agentes físicos; esterilização por agentes químicos.3. Esterilização de meios por aquecimento com vapor: cinética da destruição térmica de microrganismos; destruição de nutrientes do meio; cálculo do tempo de esterilização por processo descontínuo; cálculo do tempo de esterilização por processo contínuo.4. Esterilização de ar por filtração: aerossóis microbianos; amostradores; dimensionamento de filtros fibrosos; dimensionamento de filtros de membranas.5. Cinética e estequiometria do crescimento microbiano e da formação de produtos: velocidades de transformação e fatores de conversão; classificação dos processos fermentativos em função das velocidades de crescimento celular e formação de produtos; influência da concentração do substrato sobre a velocidade de crescimento celular; estequiometria do crescimento microbiano e da formação de produtos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,23 +112,26 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Os alunos serão avaliados formalmente por duas provas escritas (P1 e P2), sendo a segunda prova (P2) com peso 2.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os alunos serão avaliados formalmente por duas provas escritas (P1 e P2), sendo a segunda prova (P2) com peso 2.</t>
+    <t>A nota final (NF) será calculada como: NF=(P1+(P2×2))/3. Serão aprovados os alunos que obtiverem NF maior ou igual 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
-  </si>
-  <si>
-    <t>A nota final (NF) será calculada como: NF=(P1+(P2×2))/3. Serão aprovados os alunos que obtiverem NF maior ou igual 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Será oferecido um programa de recuperação avaliado por uma prova escrita final (PR).
 A média de recuperação (MR) será calculada como: MR=(NF+PR)/2. Serão aprovados os alunos que obtiverem MR maior ou igual a 5,0.</t>
+  </si>
+  <si>
+    <t>Bibliografia:</t>
+  </si>
+  <si>
+    <t>BAILEY, J.E., OLLIS D.F. Biochemical Engineering Fundamentals. 2nd edition, New York: McGraw Hill, 1986. ISBN: 978-0070032125.BORZANI, W., SCHMIDELL, W., LIMA, U.A., AQUARONE, E. Biotecnologia Industrial Fundamentos (Vol 1). São Paulo: Edgard Blucher Ltda, 2001.m ISBN: 9788521202783.DORAN P.M. Bioprocess Engineering Principles, 1st edition, San Diego: Academic Press, 1995. ISBN: 978-0080528120.KATOH, S., HORIUCHI, J., YOSHIDA, F. Biochemical Engineering: A Textbook for Engineers, Chemists and Biologists, 2nd, Completely Revised and Enlarged Edition. Weinheim/Germany: Wiley-VCH, 2015. ISBN: 978-3527338047.SCHMIDELL, W., LIMA, U.A., AQUARONE, E., BORZANI, W. Biotecnologia Industrial Engenharia Bioquímica (Vol 2), São Paulo: Edgard Blucher Ltda, 2001. ISBN: 9788521202790.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -485,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -610,37 +619,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -654,66 +660,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
